--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H2">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I2">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J2">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>1254.416438689982</v>
+        <v>550.5488330066256</v>
       </c>
       <c r="R2">
-        <v>11289.74794820984</v>
+        <v>4954.93949705963</v>
       </c>
       <c r="S2">
-        <v>0.02088900939305456</v>
+        <v>0.01061671344398645</v>
       </c>
       <c r="T2">
-        <v>0.02088900939305456</v>
+        <v>0.01061671344398645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H3">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I3">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J3">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>5105.994745731397</v>
+        <v>3414.870882823092</v>
       </c>
       <c r="R3">
-        <v>45953.95271158257</v>
+        <v>30733.83794540783</v>
       </c>
       <c r="S3">
-        <v>0.08502692480326322</v>
+        <v>0.06585193435640155</v>
       </c>
       <c r="T3">
-        <v>0.08502692480326324</v>
+        <v>0.06585193435640155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H4">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I4">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J4">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>1676.64727440446</v>
+        <v>1367.418206473872</v>
       </c>
       <c r="R4">
-        <v>15089.82546964014</v>
+        <v>12306.76385826485</v>
       </c>
       <c r="S4">
-        <v>0.02792015441096259</v>
+        <v>0.0263691182069008</v>
       </c>
       <c r="T4">
-        <v>0.0279201544109626</v>
+        <v>0.0263691182069008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H5">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I5">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J5">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>5942.713708971247</v>
+        <v>3249.176833556712</v>
       </c>
       <c r="R5">
-        <v>53484.42338074123</v>
+        <v>29242.5915020104</v>
       </c>
       <c r="S5">
-        <v>0.09896028038071171</v>
+        <v>0.06265671145341564</v>
       </c>
       <c r="T5">
-        <v>0.09896028038071172</v>
+        <v>0.06265671145341566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>494.369293</v>
       </c>
       <c r="I6">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J6">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>2214.983550850939</v>
+        <v>1453.552395327445</v>
       </c>
       <c r="R6">
-        <v>19934.85195765845</v>
+        <v>13081.97155794701</v>
       </c>
       <c r="S6">
-        <v>0.03688473043888541</v>
+        <v>0.02803011891376741</v>
       </c>
       <c r="T6">
-        <v>0.0368847304388854</v>
+        <v>0.02803011891376741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>494.369293</v>
       </c>
       <c r="I7">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J7">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>9015.900958964919</v>
@@ -883,10 +883,10 @@
         <v>81143.10863068426</v>
       </c>
       <c r="S7">
-        <v>0.1501361382152715</v>
+        <v>0.1738614836361686</v>
       </c>
       <c r="T7">
-        <v>0.1501361382152715</v>
+        <v>0.1738614836361686</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>494.369293</v>
       </c>
       <c r="I8">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J8">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>2960.536883001387</v>
+        <v>3610.241072676175</v>
       </c>
       <c r="R8">
-        <v>26644.83194701249</v>
+        <v>32492.16965408557</v>
       </c>
       <c r="S8">
-        <v>0.04929996199833309</v>
+        <v>0.06961942816769522</v>
       </c>
       <c r="T8">
-        <v>0.04929996199833309</v>
+        <v>0.06961942816769522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>494.369293</v>
       </c>
       <c r="I9">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J9">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>10493.33595032775</v>
+        <v>8578.437526543563</v>
       </c>
       <c r="R9">
-        <v>94440.02355294971</v>
+        <v>77205.93773889205</v>
       </c>
       <c r="S9">
-        <v>0.1747389355482176</v>
+        <v>0.1654254946270258</v>
       </c>
       <c r="T9">
-        <v>0.1747389355482176</v>
+        <v>0.1654254946270258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H10">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I10">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J10">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>630.9158097012979</v>
+        <v>507.0658054561234</v>
       </c>
       <c r="R10">
-        <v>5678.242287311682</v>
+        <v>4563.592249105111</v>
       </c>
       <c r="S10">
-        <v>0.01050624487099388</v>
+        <v>0.009778192289269742</v>
       </c>
       <c r="T10">
-        <v>0.01050624487099388</v>
+        <v>0.009778192289269742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H11">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I11">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J11">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>2568.088802071136</v>
+        <v>3145.160158220725</v>
       </c>
       <c r="R11">
-        <v>23112.79921864023</v>
+        <v>28306.44142398653</v>
       </c>
       <c r="S11">
-        <v>0.04276477049733565</v>
+        <v>0.06065086715908207</v>
       </c>
       <c r="T11">
-        <v>0.04276477049733565</v>
+        <v>0.06065086715908208</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H12">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I12">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J12">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>843.2791855144015</v>
+        <v>1259.417825798383</v>
       </c>
       <c r="R12">
-        <v>7589.512669629615</v>
+        <v>11334.76043218545</v>
       </c>
       <c r="S12">
-        <v>0.01404259884028129</v>
+        <v>0.02428645264713324</v>
       </c>
       <c r="T12">
-        <v>0.0140425988402813</v>
+        <v>0.02428645264713324</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H13">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I13">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J13">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>2988.921315025287</v>
+        <v>2992.552829835865</v>
       </c>
       <c r="R13">
-        <v>26900.29183522758</v>
+        <v>26932.97546852278</v>
       </c>
       <c r="S13">
-        <v>0.04977263012422512</v>
+        <v>0.05770800691166983</v>
       </c>
       <c r="T13">
-        <v>0.04977263012422514</v>
+        <v>0.05770800691166984</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H14">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I14">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J14">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>1288.155009573042</v>
+        <v>815.5230253228037</v>
       </c>
       <c r="R14">
-        <v>11593.39508615738</v>
+        <v>7339.707227905235</v>
       </c>
       <c r="S14">
-        <v>0.02145083663187844</v>
+        <v>0.01572644195709505</v>
       </c>
       <c r="T14">
-        <v>0.02145083663187844</v>
+        <v>0.01572644195709505</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H15">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I15">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J15">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>5243.32471076063</v>
+        <v>5058.417467235148</v>
       </c>
       <c r="R15">
-        <v>47189.92239684566</v>
+        <v>45525.75720511633</v>
       </c>
       <c r="S15">
-        <v>0.08731379449100374</v>
+        <v>0.09754587696863752</v>
       </c>
       <c r="T15">
-        <v>0.08731379449100374</v>
+        <v>0.09754587696863753</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H16">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I16">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J16">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>1721.742093930629</v>
+        <v>2025.544267408581</v>
       </c>
       <c r="R16">
-        <v>15495.67884537566</v>
+        <v>18229.89840667723</v>
       </c>
       <c r="S16">
-        <v>0.02867109012864498</v>
+        <v>0.03906033718706941</v>
       </c>
       <c r="T16">
-        <v>0.02867109012864498</v>
+        <v>0.03906033718706941</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H17">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I17">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J17">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>6102.547924725981</v>
+        <v>4812.976365130264</v>
       </c>
       <c r="R17">
-        <v>54922.93132253383</v>
+        <v>43316.78728617237</v>
       </c>
       <c r="S17">
-        <v>0.1016218992269371</v>
+        <v>0.09281282207468153</v>
       </c>
       <c r="T17">
-        <v>0.1016218992269371</v>
+        <v>0.09281282207468154</v>
       </c>
     </row>
   </sheetData>
